--- a/user check file.xlsx
+++ b/user check file.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ford,naya nazimabad</t>
+          <t>Ford</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fiat 23,naya nazimabad</t>
+          <t>Fiat 23</t>
         </is>
       </c>
     </row>
